--- a/python/FBC-rekisterit.xlsx
+++ b/python/FBC-rekisterit.xlsx
@@ -4068,7 +4068,7 @@
         <v>19</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F6" s="42" t="s">
         <v>23</v>

--- a/python/FBC-rekisterit.xlsx
+++ b/python/FBC-rekisterit.xlsx
@@ -172,9 +172,6 @@
     <t>Lastensuojelutoimenpiteiden kohteena olleet kohorttiin kuuluvat</t>
   </si>
   <si>
-    <t>1987-2008</t>
-  </si>
-  <si>
     <t>Register on Child Welfare</t>
   </si>
   <si>
@@ -587,13 +584,16 @@
   </si>
   <si>
     <t>Data from the information system of the Employment and Economic Development Offices (URA)</t>
+  </si>
+  <si>
+    <t>1991-2008</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -646,18 +646,6 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF6AA84F"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="8"/>
-      <color rgb="FF6AA84F"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
       <sz val="8"/>
       <color rgb="FF6AA84F"/>
       <name val="Calibri"/>
@@ -883,7 +871,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1016,9 +1004,6 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1049,9 +1034,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1082,28 +1064,28 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1115,46 +1097,46 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1178,7 +1160,7 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1195,6 +1177,9 @@
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1210,8 +1195,11 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1521,28 +1509,29 @@
   <dimension ref="A1:J95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="43" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
     <col min="5" max="5" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="113"/>
+      <c r="B1" s="112"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="116" t="s">
+      <c r="F1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="113"/>
+      <c r="G1" s="112"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -1553,14 +1542,14 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="114" t="s">
+      <c r="F2" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="115"/>
-      <c r="H2" s="117" t="s">
+      <c r="G2" s="114"/>
+      <c r="H2" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="115"/>
+      <c r="I2" s="114"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1599,7 +1588,7 @@
       <c r="A4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="118" t="str">
+      <c r="B4" s="110" t="str">
         <f>HYPERLINK("https://aineistokatalogi.fi/catalog/studies/4028c5c4-a235-4524-b92d-8a72071d2516","Syntymärekisteri")</f>
         <v>Syntymärekisteri</v>
       </c>
@@ -1704,41 +1693,41 @@
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26"/>
-      <c r="B10" s="46" t="e">
-        <f>HYPERLINK("https://thl.fi/fi/tilastot-ja-data/aineistot-ja-palvelut/aineistoluettelo/aineistoluettelo-a-o/-/aineistoluettelo/view?_rekisteriselosteportlet_WAR_rekisteriselosteportlet_action=details&amp;_rekisteriselosteportlet_WAR_rekisteriselosteportlet_id=a7d738ce-013"&amp;"0-3891-9646-766d337d233a","Terveydenhuollon hoitoilmoitusrekisteri")</f>
-        <v>#VALUE!</v>
+      <c r="B10" s="110" t="str">
+        <f>HYPERLINK("https://aineistokatalogi.fi/catalog/studies/7567e45d-72b7-428b-be9e-510440336edf","Terveydenhuollon hoitoilmoitusrekisteri")</f>
+        <v>Terveydenhuollon hoitoilmoitusrekisteri</v>
       </c>
       <c r="C10" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="47"/>
+      <c r="E10" s="46"/>
       <c r="F10" s="15" t="s">
         <v>25</v>
       </c>
       <c r="G10" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="48" t="s">
+      <c r="H10" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="49" t="s">
+      <c r="I10" s="48" t="s">
         <v>27</v>
       </c>
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26"/>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="46" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="14"/>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="50"/>
+      <c r="E11" s="49"/>
       <c r="F11" s="33"/>
       <c r="G11" s="34"/>
       <c r="H11" s="22"/>
@@ -1747,34 +1736,34 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
-      <c r="B12" s="51"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="14"/>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="52"/>
+      <c r="E12" s="51"/>
       <c r="F12" s="28" t="s">
         <v>31</v>
       </c>
       <c r="G12" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="48" t="s">
+      <c r="H12" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="49" t="s">
+      <c r="I12" s="48" t="s">
         <v>31</v>
       </c>
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
-      <c r="B13" s="53"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="32"/>
-      <c r="D13" s="50" t="s">
+      <c r="D13" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="50"/>
+      <c r="E13" s="49"/>
       <c r="F13" s="33"/>
       <c r="G13" s="34"/>
       <c r="H13" s="22"/>
@@ -1783,9 +1772,9 @@
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
-      <c r="B14" s="13" t="e">
-        <f>HYPERLINK("https://thl.fi/fi/tilastot-ja-data/aineistot-ja-palvelut/aineistoluettelo/aineistoluettelo-a-o/-/aineistoluettelo/view?_rekisteriselosteportlet_WAR_rekisteriselosteportlet_action=details&amp;_rekisteriselosteportlet_WAR_rekisteriselosteportlet_id=6b43716d-f09"&amp;"0-343f-aafc-a8b1af58496c","Tartuntatautirekisteri")</f>
-        <v>#VALUE!</v>
+      <c r="B14" s="110" t="str">
+        <f>HYPERLINK("https://aineistokatalogi.fi/catalog/studies/d6eaf26a-0def-4171-a029-33503572ab4f","Tartuntatautirekisteri")</f>
+        <v>Tartuntatautirekisteri</v>
       </c>
       <c r="C14" s="14" t="b">
         <v>0</v>
@@ -1794,7 +1783,7 @@
         <v>33</v>
       </c>
       <c r="E14" s="14"/>
-      <c r="F14" s="54" t="s">
+      <c r="F14" s="53" t="s">
         <v>34</v>
       </c>
       <c r="G14" s="16" t="s">
@@ -1814,7 +1803,7 @@
         <v>37</v>
       </c>
       <c r="E15" s="32"/>
-      <c r="F15" s="55"/>
+      <c r="F15" s="54"/>
       <c r="G15" s="34"/>
       <c r="H15" s="22"/>
       <c r="I15" s="23"/>
@@ -1822,9 +1811,9 @@
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
-      <c r="B16" s="13" t="e">
-        <f>HYPERLINK("https://thl.fi/fi/tilastot-ja-data/aineistot-ja-palvelut/aineistoluettelo/aineistoluettelo-a-o/-/aineistoluettelo/view?_rekisteriselosteportlet_WAR_rekisteriselosteportlet_action=details&amp;_rekisteriselosteportlet_WAR_rekisteriselosteportlet_id=f33cefcf-941"&amp;"3-3c1a-84a2-a088b19b0374","Raskaudenkeskeyttämisrekisteri")</f>
-        <v>#VALUE!</v>
+      <c r="B16" s="110" t="str">
+        <f>HYPERLINK("https://aineistokatalogi.fi/catalog/studies/dae286b6-f05b-4ccd-8677-490df8f12483","Raskaudenkeskeyttämisrekisteri")</f>
+        <v>Raskaudenkeskeyttämisrekisteri</v>
       </c>
       <c r="C16" s="14" t="b">
         <v>0</v>
@@ -1861,27 +1850,27 @@
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
-      <c r="B18" s="13" t="e">
-        <f>HYPERLINK("https://thl.fi/fi/tilastot-ja-data/aineistot-ja-palvelut/aineistoluettelo/aineistoluettelo-a-o/-/aineistoluettelo/view?_rekisteriselosteportlet_WAR_rekisteriselosteportlet_action=details&amp;_rekisteriselosteportlet_WAR_rekisteriselosteportlet_id=064b7402-3fa"&amp;"b-333a-9496-a27a85cc6684","Toimeentulorekisteri")</f>
-        <v>#VALUE!</v>
+      <c r="B18" s="110" t="str">
+        <f>HYPERLINK("https://aineistokatalogi.fi/catalog/studies/40d61867-321c-4638-b6c7-afaaef4a897d","Toimeentulorekisteri")</f>
+        <v>Toimeentulorekisteri</v>
       </c>
       <c r="C18" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="D18" s="47" t="s">
+      <c r="D18" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="47"/>
+      <c r="E18" s="46"/>
       <c r="F18" s="15" t="s">
         <v>25</v>
       </c>
       <c r="G18" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="48" t="s">
+      <c r="H18" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="49" t="s">
+      <c r="I18" s="48" t="s">
         <v>25</v>
       </c>
       <c r="J18" s="3"/>
@@ -1892,10 +1881,10 @@
         <v>42</v>
       </c>
       <c r="C19" s="32"/>
-      <c r="D19" s="50" t="s">
+      <c r="D19" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="50"/>
+      <c r="E19" s="49"/>
       <c r="F19" s="33"/>
       <c r="G19" s="34"/>
       <c r="H19" s="22"/>
@@ -1904,27 +1893,27 @@
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
-      <c r="B20" s="46" t="e">
-        <f>HYPERLINK("https://thl.fi/fi/tilastot-ja-data/aineistot-ja-palvelut/aineistoluettelo/aineistoluettelo-a-o/-/aineistoluettelo/view?_rekisteriselosteportlet_WAR_rekisteriselosteportlet_action=details&amp;_rekisteriselosteportlet_WAR_rekisteriselosteportlet_id=103e0f03-94f"&amp;"5-3580-964b-d1e789d76257","Sosiaalihuollon hoitoilmoitusrekisteri")</f>
-        <v>#VALUE!</v>
+      <c r="B20" s="110" t="str">
+        <f>HYPERLINK("https://aineistokatalogi.fi/catalog/studies/7567e45d-72b7-428b-be9e-510440336edf/datasets/abcc2578-1a24-41e0-bce9-2c214538b087","Sosiaalihuollon hoitoilmoitusrekisteri")</f>
+        <v>Sosiaalihuollon hoitoilmoitusrekisteri</v>
       </c>
       <c r="C20" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="D20" s="47" t="s">
+      <c r="D20" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="47"/>
+      <c r="E20" s="46"/>
       <c r="F20" s="15" t="s">
         <v>45</v>
       </c>
       <c r="G20" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="H20" s="48" t="s">
+      <c r="H20" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="I20" s="49" t="s">
+      <c r="I20" s="48" t="s">
         <v>48</v>
       </c>
       <c r="J20" s="3"/>
@@ -1935,10 +1924,10 @@
         <v>49</v>
       </c>
       <c r="C21" s="32"/>
-      <c r="D21" s="50" t="s">
+      <c r="D21" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="50"/>
+      <c r="E21" s="49"/>
       <c r="F21" s="33"/>
       <c r="G21" s="34"/>
       <c r="H21" s="22"/>
@@ -1947,19 +1936,19 @@
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
-      <c r="B22" s="13" t="e">
-        <f>HYPERLINK("https://thl.fi/fi/tilastot-ja-data/aineistot-ja-palvelut/aineistoluettelo/aineistoluettelo-a-o/-/aineistoluettelo/view?_rekisteriselosteportlet_WAR_rekisteriselosteportlet_action=details&amp;_rekisteriselosteportlet_WAR_rekisteriselosteportlet_id=2bf2e56f-48d"&amp;"9-334e-8b2d-f025acdb5400","Lastensuojelurekisteri")</f>
-        <v>#VALUE!</v>
+      <c r="B22" s="110" t="str">
+        <f>HYPERLINK("https://aineistokatalogi.fi/catalog/studies/c5c77504-6e32-4db0-91d0-f2d953f35fce","Lastensuojelurekisteri")</f>
+        <v>Lastensuojelurekisteri</v>
       </c>
       <c r="C22" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="D22" s="47" t="s">
+      <c r="D22" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="47"/>
-      <c r="F22" s="54" t="s">
-        <v>52</v>
+      <c r="E22" s="46"/>
+      <c r="F22" s="53" t="s">
+        <v>190</v>
       </c>
       <c r="G22" s="16" t="s">
         <v>26</v>
@@ -1971,24 +1960,24 @@
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="26"/>
       <c r="B23" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="32"/>
+      <c r="D23" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="50"/>
-      <c r="F23" s="55"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="54"/>
       <c r="G23" s="34"/>
       <c r="H23" s="22"/>
       <c r="I23" s="23"/>
       <c r="J23" s="24"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="13" t="str">
+      <c r="A24" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="110" t="str">
         <f>HYPERLINK("https://www.stat.fi/til/ksyyt/index.html","Kuolemansyytilasto")</f>
         <v>Kuolemansyytilasto</v>
       </c>
@@ -1996,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="15" t="s">
@@ -2005,24 +1994,24 @@
       <c r="G24" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="48" t="s">
+      <c r="H24" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="I24" s="49" t="s">
+      <c r="I24" s="48" t="s">
         <v>46</v>
       </c>
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="32" t="s">
         <v>57</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>58</v>
       </c>
       <c r="C25" s="32"/>
       <c r="D25" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E25" s="32"/>
       <c r="F25" s="33"/>
@@ -2033,27 +2022,27 @@
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
-      <c r="B26" s="57" t="str">
+      <c r="B26" s="117" t="str">
         <f>HYPERLINK("http://www.stat.fi/meta/rekisteriselosteet/rekisteriseloste_tutkintorekisteri.html","Tutkintorekisteri")</f>
         <v>Tutkintorekisteri</v>
       </c>
       <c r="C26" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="D26" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" s="52"/>
+      <c r="D26" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="51"/>
       <c r="F26" s="28" t="s">
         <v>22</v>
       </c>
       <c r="G26" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="H26" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="I26" s="49" t="s">
+      <c r="H26" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="I26" s="48" t="s">
         <v>46</v>
       </c>
       <c r="J26" s="3"/>
@@ -2061,14 +2050,14 @@
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="41"/>
       <c r="B27" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C27" s="32"/>
       <c r="D27" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E27" s="32"/>
-      <c r="F27" s="55"/>
+      <c r="F27" s="54"/>
       <c r="G27" s="34"/>
       <c r="H27" s="22"/>
       <c r="I27" s="23"/>
@@ -2076,7 +2065,7 @@
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B28" s="13" t="str">
         <f>HYPERLINK("https://vrk.fi/vaestotietojarjestelma","Väestötietojärjestelmä")</f>
@@ -2085,15 +2074,15 @@
       <c r="C28" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="D28" s="47" t="s">
+      <c r="D28" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="46"/>
+      <c r="F28" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="47"/>
-      <c r="F28" s="54" t="s">
+      <c r="G28" s="16" t="s">
         <v>66</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>67</v>
       </c>
       <c r="H28" s="30"/>
       <c r="I28" s="31"/>
@@ -2101,17 +2090,17 @@
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="C29" s="14"/>
+      <c r="D29" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" s="50"/>
-      <c r="F29" s="55"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="54"/>
       <c r="G29" s="34"/>
       <c r="H29" s="30"/>
       <c r="I29" s="31"/>
@@ -2121,21 +2110,21 @@
       <c r="A30" s="25"/>
       <c r="B30" s="26"/>
       <c r="C30" s="14"/>
-      <c r="D30" s="47" t="s">
+      <c r="D30" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="46"/>
+      <c r="F30" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H30" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="E30" s="47"/>
-      <c r="F30" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="H30" s="48" t="s">
+      <c r="I30" s="48" t="s">
         <v>72</v>
-      </c>
-      <c r="I30" s="49" t="s">
-        <v>73</v>
       </c>
       <c r="J30" s="3"/>
     </row>
@@ -2143,10 +2132,10 @@
       <c r="A31" s="25"/>
       <c r="B31" s="26"/>
       <c r="C31" s="14"/>
-      <c r="D31" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="E31" s="50"/>
+      <c r="D31" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="49"/>
       <c r="F31" s="33"/>
       <c r="G31" s="34"/>
       <c r="H31" s="22"/>
@@ -2158,14 +2147,14 @@
       <c r="B32" s="26"/>
       <c r="C32" s="14"/>
       <c r="D32" s="35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E32" s="35"/>
-      <c r="F32" s="58"/>
+      <c r="F32" s="56"/>
       <c r="G32" s="38"/>
       <c r="H32" s="30"/>
       <c r="I32" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J32" s="3"/>
     </row>
@@ -2174,10 +2163,10 @@
       <c r="B33" s="26"/>
       <c r="C33" s="14"/>
       <c r="D33" s="42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E33" s="42"/>
-      <c r="F33" s="59"/>
+      <c r="F33" s="57"/>
       <c r="G33" s="45"/>
       <c r="H33" s="30"/>
       <c r="I33" s="31"/>
@@ -2187,21 +2176,21 @@
       <c r="A34" s="25"/>
       <c r="B34" s="26"/>
       <c r="C34" s="14"/>
-      <c r="D34" s="47" t="s">
+      <c r="D34" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" s="46"/>
+      <c r="F34" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="E34" s="47"/>
-      <c r="F34" s="54" t="s">
+      <c r="G34" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="G34" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="H34" s="48" t="s">
+      <c r="H34" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="I34" s="48" t="s">
         <v>72</v>
-      </c>
-      <c r="I34" s="49" t="s">
-        <v>73</v>
       </c>
       <c r="J34" s="3"/>
     </row>
@@ -2209,11 +2198,11 @@
       <c r="A35" s="25"/>
       <c r="B35" s="26"/>
       <c r="C35" s="14"/>
-      <c r="D35" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="E35" s="50"/>
-      <c r="F35" s="55"/>
+      <c r="D35" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" s="49"/>
+      <c r="F35" s="54"/>
       <c r="G35" s="34"/>
       <c r="H35" s="30"/>
       <c r="I35" s="31"/>
@@ -2223,19 +2212,19 @@
       <c r="A36" s="25"/>
       <c r="B36" s="26"/>
       <c r="C36" s="14"/>
-      <c r="D36" s="47" t="s">
+      <c r="D36" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" s="46"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E36" s="47"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="16" t="s">
+      <c r="H36" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="H36" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="I36" s="49" t="s">
-        <v>83</v>
+      <c r="I36" s="48" t="s">
+        <v>82</v>
       </c>
       <c r="J36" s="3"/>
     </row>
@@ -2243,11 +2232,11 @@
       <c r="A37" s="25"/>
       <c r="B37" s="26"/>
       <c r="C37" s="14"/>
-      <c r="D37" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="E37" s="50"/>
-      <c r="F37" s="55"/>
+      <c r="D37" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="E37" s="49"/>
+      <c r="F37" s="54"/>
       <c r="G37" s="34"/>
       <c r="H37" s="22"/>
       <c r="I37" s="23"/>
@@ -2257,13 +2246,13 @@
       <c r="A38" s="25"/>
       <c r="B38" s="26"/>
       <c r="C38" s="14"/>
-      <c r="D38" s="47" t="s">
+      <c r="D38" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38" s="46"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="16" t="s">
         <v>86</v>
-      </c>
-      <c r="E38" s="47"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="16" t="s">
-        <v>87</v>
       </c>
       <c r="H38" s="30"/>
       <c r="I38" s="31"/>
@@ -2273,63 +2262,63 @@
       <c r="A39" s="25"/>
       <c r="B39" s="26"/>
       <c r="C39" s="14"/>
-      <c r="D39" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="E39" s="47"/>
-      <c r="F39" s="60"/>
+      <c r="D39" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="E39" s="46"/>
+      <c r="F39" s="58"/>
       <c r="G39" s="21"/>
       <c r="H39" s="22"/>
       <c r="I39" s="23"/>
       <c r="J39" s="24"/>
     </row>
     <row r="40" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="61"/>
-      <c r="B40" s="62"/>
+      <c r="A40" s="59"/>
+      <c r="B40" s="60"/>
       <c r="C40" s="14"/>
-      <c r="D40" s="63" t="s">
-        <v>89</v>
-      </c>
-      <c r="E40" s="63"/>
-      <c r="F40" s="64"/>
+      <c r="D40" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" s="61"/>
+      <c r="F40" s="62"/>
       <c r="G40" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H40" s="30"/>
       <c r="I40" s="31"/>
       <c r="J40" s="3"/>
     </row>
     <row r="41" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="65"/>
-      <c r="B41" s="65"/>
+      <c r="A41" s="63"/>
+      <c r="B41" s="63"/>
       <c r="C41" s="32"/>
-      <c r="D41" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="E41" s="66"/>
-      <c r="F41" s="55"/>
+      <c r="D41" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="E41" s="64"/>
+      <c r="F41" s="54"/>
       <c r="G41" s="34"/>
       <c r="H41" s="22"/>
       <c r="I41" s="23"/>
       <c r="J41" s="24"/>
     </row>
     <row r="42" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A42" s="67" t="s">
-        <v>91</v>
-      </c>
-      <c r="B42" s="68" t="str">
+      <c r="A42" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="66" t="str">
         <f>HYPERLINK("https://www.kela.fi/documents/10180/7276260/Tietosuojaseloste+-+Etuusrekisteri..pdf/","Etuusrekisteri")</f>
         <v>Etuusrekisteri</v>
       </c>
       <c r="C42" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="D42" s="69" t="s">
+      <c r="D42" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" s="67"/>
+      <c r="F42" s="53" t="s">
         <v>92</v>
-      </c>
-      <c r="E42" s="69"/>
-      <c r="F42" s="54" t="s">
-        <v>93</v>
       </c>
       <c r="G42" s="16" t="s">
         <v>26</v>
@@ -2339,32 +2328,32 @@
       <c r="J42" s="3"/>
     </row>
     <row r="43" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A43" s="67" t="s">
+      <c r="A43" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="B43" s="69" t="s">
+      <c r="C43" s="14"/>
+      <c r="D43" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="66" t="s">
-        <v>96</v>
-      </c>
-      <c r="E43" s="66"/>
-      <c r="F43" s="55"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="54"/>
       <c r="G43" s="34"/>
       <c r="H43" s="22"/>
       <c r="I43" s="23"/>
       <c r="J43" s="24"/>
     </row>
     <row r="44" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A44" s="62"/>
-      <c r="B44" s="62"/>
+      <c r="A44" s="60"/>
+      <c r="B44" s="60"/>
       <c r="C44" s="14"/>
-      <c r="D44" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="E44" s="70"/>
-      <c r="F44" s="54" t="s">
+      <c r="D44" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="E44" s="68"/>
+      <c r="F44" s="53" t="s">
         <v>18</v>
       </c>
       <c r="G44" s="16" t="s">
@@ -2375,29 +2364,29 @@
       <c r="J44" s="3"/>
     </row>
     <row r="45" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A45" s="62"/>
-      <c r="B45" s="62"/>
+      <c r="A45" s="60"/>
+      <c r="B45" s="60"/>
       <c r="C45" s="14"/>
-      <c r="D45" s="71" t="s">
-        <v>98</v>
-      </c>
-      <c r="E45" s="71"/>
-      <c r="F45" s="55"/>
+      <c r="D45" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="E45" s="69"/>
+      <c r="F45" s="54"/>
       <c r="G45" s="34"/>
       <c r="H45" s="22"/>
       <c r="I45" s="23"/>
       <c r="J45" s="24"/>
     </row>
     <row r="46" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A46" s="62"/>
-      <c r="B46" s="62"/>
+      <c r="A46" s="60"/>
+      <c r="B46" s="60"/>
       <c r="C46" s="14"/>
-      <c r="D46" s="69" t="s">
+      <c r="D46" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="E46" s="67"/>
+      <c r="F46" s="53" t="s">
         <v>99</v>
-      </c>
-      <c r="E46" s="69"/>
-      <c r="F46" s="54" t="s">
-        <v>100</v>
       </c>
       <c r="G46" s="16" t="s">
         <v>35</v>
@@ -2407,28 +2396,28 @@
       <c r="J46" s="3"/>
     </row>
     <row r="47" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A47" s="62"/>
-      <c r="B47" s="62"/>
+      <c r="A47" s="60"/>
+      <c r="B47" s="60"/>
       <c r="C47" s="14"/>
-      <c r="D47" s="66" t="s">
-        <v>101</v>
-      </c>
-      <c r="E47" s="66"/>
-      <c r="F47" s="55"/>
+      <c r="D47" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="E47" s="64"/>
+      <c r="F47" s="54"/>
       <c r="G47" s="34"/>
       <c r="H47" s="22"/>
       <c r="I47" s="23"/>
       <c r="J47" s="24"/>
     </row>
     <row r="48" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A48" s="62"/>
-      <c r="B48" s="62"/>
+      <c r="A48" s="60"/>
+      <c r="B48" s="60"/>
       <c r="C48" s="14"/>
-      <c r="D48" s="69" t="s">
-        <v>102</v>
-      </c>
-      <c r="E48" s="69"/>
-      <c r="F48" s="54" t="s">
+      <c r="D48" s="67" t="s">
+        <v>101</v>
+      </c>
+      <c r="E48" s="67"/>
+      <c r="F48" s="53" t="s">
         <v>25</v>
       </c>
       <c r="G48" s="16" t="s">
@@ -2439,64 +2428,64 @@
       <c r="J48" s="3"/>
     </row>
     <row r="49" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A49" s="62"/>
-      <c r="B49" s="62"/>
+      <c r="A49" s="60"/>
+      <c r="B49" s="60"/>
       <c r="C49" s="14"/>
-      <c r="D49" s="66" t="s">
-        <v>103</v>
-      </c>
-      <c r="E49" s="66"/>
-      <c r="F49" s="55"/>
+      <c r="D49" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="E49" s="64"/>
+      <c r="F49" s="54"/>
       <c r="G49" s="34"/>
       <c r="H49" s="30"/>
       <c r="I49" s="31"/>
       <c r="J49" s="24"/>
     </row>
     <row r="50" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A50" s="62"/>
-      <c r="B50" s="62"/>
+      <c r="A50" s="60"/>
+      <c r="B50" s="60"/>
       <c r="C50" s="14"/>
-      <c r="D50" s="69" t="s">
-        <v>104</v>
-      </c>
-      <c r="E50" s="69"/>
-      <c r="F50" s="54" t="s">
+      <c r="D50" s="67" t="s">
+        <v>103</v>
+      </c>
+      <c r="E50" s="67"/>
+      <c r="F50" s="53" t="s">
         <v>25</v>
       </c>
       <c r="G50" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H50" s="72" t="s">
+      <c r="H50" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="I50" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="J50" s="3"/>
+    </row>
+    <row r="51" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A51" s="60"/>
+      <c r="B51" s="60"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="I50" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="J50" s="3"/>
-    </row>
-    <row r="51" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A51" s="62"/>
-      <c r="B51" s="62"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="66" t="s">
-        <v>106</v>
-      </c>
-      <c r="E51" s="66"/>
-      <c r="F51" s="55"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="54"/>
       <c r="G51" s="34"/>
       <c r="H51" s="22"/>
       <c r="I51" s="23"/>
       <c r="J51" s="24"/>
     </row>
     <row r="52" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A52" s="62"/>
-      <c r="B52" s="62"/>
+      <c r="A52" s="60"/>
+      <c r="B52" s="60"/>
       <c r="C52" s="14"/>
-      <c r="D52" s="69" t="s">
-        <v>107</v>
-      </c>
-      <c r="E52" s="69"/>
-      <c r="F52" s="54" t="s">
+      <c r="D52" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="E52" s="67"/>
+      <c r="F52" s="53" t="s">
         <v>25</v>
       </c>
       <c r="G52" s="16" t="s">
@@ -2507,64 +2496,64 @@
       <c r="J52" s="3"/>
     </row>
     <row r="53" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A53" s="62"/>
-      <c r="B53" s="62"/>
+      <c r="A53" s="60"/>
+      <c r="B53" s="60"/>
       <c r="C53" s="14"/>
-      <c r="D53" s="66" t="s">
-        <v>108</v>
-      </c>
-      <c r="E53" s="66"/>
-      <c r="F53" s="55"/>
+      <c r="D53" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="E53" s="64"/>
+      <c r="F53" s="54"/>
       <c r="G53" s="34"/>
       <c r="H53" s="30"/>
       <c r="I53" s="31"/>
       <c r="J53" s="24"/>
     </row>
     <row r="54" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A54" s="73"/>
-      <c r="B54" s="73"/>
+      <c r="A54" s="71"/>
+      <c r="B54" s="71"/>
       <c r="C54" s="14"/>
-      <c r="D54" s="74" t="s">
+      <c r="D54" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="E54" s="72"/>
+      <c r="F54" s="53" t="s">
         <v>109</v>
-      </c>
-      <c r="E54" s="74"/>
-      <c r="F54" s="54" t="s">
-        <v>110</v>
       </c>
       <c r="G54" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H54" s="72" t="s">
+      <c r="H54" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="I54" s="49" t="s">
+      <c r="I54" s="48" t="s">
         <v>26</v>
       </c>
       <c r="J54" s="3"/>
     </row>
     <row r="55" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A55" s="73"/>
-      <c r="B55" s="73"/>
+      <c r="A55" s="71"/>
+      <c r="B55" s="71"/>
       <c r="C55" s="14"/>
-      <c r="D55" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="E55" s="75"/>
-      <c r="F55" s="55"/>
+      <c r="D55" s="73" t="s">
+        <v>110</v>
+      </c>
+      <c r="E55" s="73"/>
+      <c r="F55" s="54"/>
       <c r="G55" s="34"/>
       <c r="H55" s="22"/>
       <c r="I55" s="23"/>
       <c r="J55" s="24"/>
     </row>
     <row r="56" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A56" s="73"/>
-      <c r="B56" s="73"/>
+      <c r="A56" s="71"/>
+      <c r="B56" s="71"/>
       <c r="C56" s="14"/>
-      <c r="D56" s="69" t="s">
-        <v>112</v>
-      </c>
-      <c r="E56" s="69"/>
-      <c r="F56" s="54" t="s">
+      <c r="D56" s="67" t="s">
+        <v>111</v>
+      </c>
+      <c r="E56" s="67"/>
+      <c r="F56" s="53" t="s">
         <v>25</v>
       </c>
       <c r="G56" s="16" t="s">
@@ -2575,29 +2564,29 @@
       <c r="J56" s="3"/>
     </row>
     <row r="57" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A57" s="73"/>
-      <c r="B57" s="73"/>
+      <c r="A57" s="71"/>
+      <c r="B57" s="71"/>
       <c r="C57" s="14"/>
-      <c r="D57" s="66" t="s">
-        <v>113</v>
-      </c>
-      <c r="E57" s="66"/>
-      <c r="F57" s="55"/>
+      <c r="D57" s="64" t="s">
+        <v>112</v>
+      </c>
+      <c r="E57" s="64"/>
+      <c r="F57" s="54"/>
       <c r="G57" s="34"/>
       <c r="H57" s="22"/>
       <c r="I57" s="23"/>
       <c r="J57" s="24"/>
     </row>
     <row r="58" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A58" s="73"/>
-      <c r="B58" s="73"/>
+      <c r="A58" s="71"/>
+      <c r="B58" s="71"/>
       <c r="C58" s="14"/>
-      <c r="D58" s="69" t="s">
-        <v>114</v>
-      </c>
-      <c r="E58" s="69"/>
-      <c r="F58" s="54" t="s">
-        <v>93</v>
+      <c r="D58" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="E58" s="67"/>
+      <c r="F58" s="53" t="s">
+        <v>92</v>
       </c>
       <c r="G58" s="16" t="s">
         <v>26</v>
@@ -2607,60 +2596,60 @@
       <c r="J58" s="3"/>
     </row>
     <row r="59" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A59" s="73"/>
-      <c r="B59" s="73"/>
+      <c r="A59" s="71"/>
+      <c r="B59" s="71"/>
       <c r="C59" s="14"/>
-      <c r="D59" s="66" t="s">
-        <v>115</v>
-      </c>
-      <c r="E59" s="66"/>
-      <c r="F59" s="55"/>
+      <c r="D59" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="E59" s="64"/>
+      <c r="F59" s="54"/>
       <c r="G59" s="34"/>
       <c r="H59" s="22"/>
       <c r="I59" s="23"/>
       <c r="J59" s="24"/>
     </row>
     <row r="60" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A60" s="73"/>
-      <c r="B60" s="73"/>
+      <c r="A60" s="71"/>
+      <c r="B60" s="71"/>
       <c r="C60" s="14"/>
-      <c r="D60" s="69" t="s">
+      <c r="D60" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="E60" s="67"/>
+      <c r="F60" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="E60" s="69"/>
-      <c r="F60" s="54" t="s">
+      <c r="G60" s="16" t="s">
         <v>117</v>
-      </c>
-      <c r="G60" s="16" t="s">
-        <v>118</v>
       </c>
       <c r="H60" s="30"/>
       <c r="I60" s="31"/>
       <c r="J60" s="3"/>
     </row>
     <row r="61" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A61" s="73"/>
-      <c r="B61" s="73"/>
+      <c r="A61" s="71"/>
+      <c r="B61" s="71"/>
       <c r="C61" s="14"/>
-      <c r="D61" s="66" t="s">
-        <v>119</v>
-      </c>
-      <c r="E61" s="66"/>
-      <c r="F61" s="55"/>
+      <c r="D61" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="E61" s="64"/>
+      <c r="F61" s="54"/>
       <c r="G61" s="34"/>
       <c r="H61" s="22"/>
       <c r="I61" s="23"/>
       <c r="J61" s="24"/>
     </row>
     <row r="62" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A62" s="73"/>
-      <c r="B62" s="73"/>
+      <c r="A62" s="71"/>
+      <c r="B62" s="71"/>
       <c r="C62" s="14"/>
-      <c r="D62" s="69" t="s">
-        <v>120</v>
-      </c>
-      <c r="E62" s="69"/>
-      <c r="F62" s="54" t="s">
+      <c r="D62" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="E62" s="67"/>
+      <c r="F62" s="53" t="s">
         <v>25</v>
       </c>
       <c r="G62" s="16" t="s">
@@ -2671,60 +2660,60 @@
       <c r="J62" s="3"/>
     </row>
     <row r="63" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A63" s="73"/>
-      <c r="B63" s="73"/>
+      <c r="A63" s="71"/>
+      <c r="B63" s="71"/>
       <c r="C63" s="14"/>
-      <c r="D63" s="66" t="s">
-        <v>121</v>
-      </c>
-      <c r="E63" s="66"/>
-      <c r="F63" s="55"/>
+      <c r="D63" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="E63" s="64"/>
+      <c r="F63" s="54"/>
       <c r="G63" s="34"/>
       <c r="H63" s="22"/>
       <c r="I63" s="23"/>
       <c r="J63" s="24"/>
     </row>
     <row r="64" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A64" s="73"/>
-      <c r="B64" s="73"/>
+      <c r="A64" s="71"/>
+      <c r="B64" s="71"/>
       <c r="C64" s="14"/>
-      <c r="D64" s="69" t="s">
-        <v>122</v>
-      </c>
-      <c r="E64" s="69"/>
-      <c r="F64" s="54" t="s">
+      <c r="D64" s="67" t="s">
+        <v>121</v>
+      </c>
+      <c r="E64" s="67"/>
+      <c r="F64" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="G64" s="16" t="s">
         <v>117</v>
-      </c>
-      <c r="G64" s="16" t="s">
-        <v>118</v>
       </c>
       <c r="H64" s="30"/>
       <c r="I64" s="31"/>
       <c r="J64" s="3"/>
     </row>
     <row r="65" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A65" s="73"/>
-      <c r="B65" s="73"/>
+      <c r="A65" s="71"/>
+      <c r="B65" s="71"/>
       <c r="C65" s="14"/>
-      <c r="D65" s="66" t="s">
-        <v>123</v>
-      </c>
-      <c r="E65" s="66"/>
-      <c r="F65" s="55"/>
+      <c r="D65" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="E65" s="64"/>
+      <c r="F65" s="54"/>
       <c r="G65" s="34"/>
       <c r="H65" s="22"/>
       <c r="I65" s="23"/>
       <c r="J65" s="24"/>
     </row>
     <row r="66" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A66" s="73"/>
-      <c r="B66" s="73"/>
+      <c r="A66" s="71"/>
+      <c r="B66" s="71"/>
       <c r="C66" s="14"/>
-      <c r="D66" s="69" t="s">
-        <v>124</v>
-      </c>
-      <c r="E66" s="69"/>
-      <c r="F66" s="54" t="s">
+      <c r="D66" s="67" t="s">
+        <v>123</v>
+      </c>
+      <c r="E66" s="67"/>
+      <c r="F66" s="53" t="s">
         <v>25</v>
       </c>
       <c r="G66" s="16" t="s">
@@ -2735,89 +2724,89 @@
       <c r="J66" s="3"/>
     </row>
     <row r="67" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A67" s="73"/>
-      <c r="B67" s="73"/>
+      <c r="A67" s="71"/>
+      <c r="B67" s="71"/>
       <c r="C67" s="14"/>
-      <c r="D67" s="66" t="s">
-        <v>125</v>
-      </c>
-      <c r="E67" s="66"/>
-      <c r="F67" s="55"/>
+      <c r="D67" s="64" t="s">
+        <v>124</v>
+      </c>
+      <c r="E67" s="64"/>
+      <c r="F67" s="54"/>
       <c r="G67" s="34"/>
       <c r="H67" s="22"/>
       <c r="I67" s="23"/>
       <c r="J67" s="24"/>
     </row>
     <row r="68" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A68" s="73"/>
-      <c r="B68" s="73"/>
+      <c r="A68" s="71"/>
+      <c r="B68" s="71"/>
       <c r="C68" s="14"/>
-      <c r="D68" s="76" t="s">
+      <c r="D68" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="E68" s="75"/>
+      <c r="F68" s="76"/>
+      <c r="G68" s="48"/>
+      <c r="H68" s="70" t="s">
         <v>126</v>
-      </c>
-      <c r="E68" s="77"/>
-      <c r="F68" s="78"/>
-      <c r="G68" s="49"/>
-      <c r="H68" s="72" t="s">
-        <v>127</v>
       </c>
       <c r="I68" s="31"/>
       <c r="J68" s="3"/>
     </row>
     <row r="69" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A69" s="73"/>
-      <c r="B69" s="73"/>
+      <c r="A69" s="71"/>
+      <c r="B69" s="71"/>
       <c r="C69" s="14"/>
-      <c r="D69" s="79" t="s">
-        <v>128</v>
-      </c>
-      <c r="E69" s="79"/>
+      <c r="D69" s="77" t="s">
+        <v>127</v>
+      </c>
+      <c r="E69" s="77"/>
       <c r="F69" s="44"/>
-      <c r="G69" s="80"/>
+      <c r="G69" s="78"/>
       <c r="H69" s="22"/>
       <c r="I69" s="23"/>
       <c r="J69" s="24"/>
     </row>
     <row r="70" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A70" s="73"/>
-      <c r="B70" s="73"/>
+      <c r="A70" s="71"/>
+      <c r="B70" s="71"/>
       <c r="C70" s="14"/>
-      <c r="D70" s="76" t="s">
+      <c r="D70" s="74" t="s">
+        <v>128</v>
+      </c>
+      <c r="E70" s="75"/>
+      <c r="F70" s="76"/>
+      <c r="G70" s="48"/>
+      <c r="H70" s="70" t="s">
         <v>129</v>
-      </c>
-      <c r="E70" s="77"/>
-      <c r="F70" s="78"/>
-      <c r="G70" s="49"/>
-      <c r="H70" s="72" t="s">
-        <v>130</v>
       </c>
       <c r="I70" s="31"/>
       <c r="J70" s="3"/>
     </row>
     <row r="71" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A71" s="73"/>
-      <c r="B71" s="73"/>
+      <c r="A71" s="71"/>
+      <c r="B71" s="71"/>
       <c r="C71" s="14"/>
-      <c r="D71" s="79" t="s">
-        <v>131</v>
-      </c>
-      <c r="E71" s="79"/>
+      <c r="D71" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="E71" s="77"/>
       <c r="F71" s="44"/>
-      <c r="G71" s="80"/>
+      <c r="G71" s="78"/>
       <c r="H71" s="22"/>
       <c r="I71" s="23"/>
       <c r="J71" s="24"/>
     </row>
     <row r="72" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A72" s="73"/>
-      <c r="B72" s="73"/>
+      <c r="A72" s="71"/>
+      <c r="B72" s="71"/>
       <c r="C72" s="14"/>
-      <c r="D72" s="74" t="s">
+      <c r="D72" s="72" t="s">
+        <v>131</v>
+      </c>
+      <c r="E72" s="72"/>
+      <c r="F72" s="53" t="s">
         <v>132</v>
-      </c>
-      <c r="E72" s="74"/>
-      <c r="F72" s="54" t="s">
-        <v>133</v>
       </c>
       <c r="G72" s="16" t="s">
         <v>35</v>
@@ -2827,154 +2816,154 @@
       <c r="J72" s="3"/>
     </row>
     <row r="73" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A73" s="81"/>
-      <c r="B73" s="81"/>
+      <c r="A73" s="79"/>
+      <c r="B73" s="79"/>
       <c r="C73" s="32"/>
-      <c r="D73" s="75" t="s">
-        <v>134</v>
-      </c>
-      <c r="E73" s="75"/>
-      <c r="F73" s="55"/>
+      <c r="D73" s="73" t="s">
+        <v>133</v>
+      </c>
+      <c r="E73" s="73"/>
+      <c r="F73" s="54"/>
       <c r="G73" s="34"/>
       <c r="H73" s="22"/>
       <c r="I73" s="23"/>
       <c r="J73" s="24"/>
     </row>
     <row r="74" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A74" s="82" t="s">
+      <c r="A74" s="80" t="s">
+        <v>134</v>
+      </c>
+      <c r="B74" s="81" t="s">
         <v>135</v>
-      </c>
-      <c r="B74" s="83" t="s">
-        <v>136</v>
       </c>
       <c r="C74" s="14" t="b">
         <v>0</v>
       </c>
       <c r="D74" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="E74" s="82"/>
+      <c r="F74" s="76"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="70" t="s">
         <v>137</v>
       </c>
-      <c r="E74" s="84"/>
-      <c r="F74" s="78"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="72" t="s">
+      <c r="I74" s="83"/>
+      <c r="J74" s="84"/>
+    </row>
+    <row r="75" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A75" s="85" t="s">
+        <v>134</v>
+      </c>
+      <c r="B75" s="86" t="s">
         <v>138</v>
-      </c>
-      <c r="I74" s="85"/>
-      <c r="J74" s="86"/>
-    </row>
-    <row r="75" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A75" s="87" t="s">
-        <v>135</v>
-      </c>
-      <c r="B75" s="88" t="s">
-        <v>139</v>
       </c>
       <c r="C75" s="32"/>
       <c r="D75" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E75" s="42"/>
       <c r="F75" s="44"/>
-      <c r="G75" s="89"/>
-      <c r="H75" s="90"/>
-      <c r="I75" s="89"/>
-      <c r="J75" s="91"/>
+      <c r="G75" s="87"/>
+      <c r="H75" s="88"/>
+      <c r="I75" s="87"/>
+      <c r="J75" s="89"/>
     </row>
     <row r="76" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A76" s="67" t="s">
-        <v>141</v>
-      </c>
-      <c r="B76" s="83" t="s">
-        <v>136</v>
+      <c r="A76" s="65" t="s">
+        <v>140</v>
+      </c>
+      <c r="B76" s="81" t="s">
+        <v>135</v>
       </c>
       <c r="C76" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="D76" s="69" t="s">
+      <c r="D76" s="67" t="s">
+        <v>141</v>
+      </c>
+      <c r="E76" s="67"/>
+      <c r="F76" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="E76" s="69"/>
-      <c r="F76" s="54" t="s">
+      <c r="G76" s="16" t="s">
         <v>143</v>
-      </c>
-      <c r="G76" s="16" t="s">
-        <v>144</v>
       </c>
       <c r="H76" s="30"/>
       <c r="I76" s="31"/>
       <c r="J76" s="3"/>
     </row>
     <row r="77" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A77" s="92" t="s">
+      <c r="A77" s="90" t="s">
+        <v>144</v>
+      </c>
+      <c r="B77" s="86" t="s">
+        <v>138</v>
+      </c>
+      <c r="C77" s="32"/>
+      <c r="D77" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="B77" s="88" t="s">
-        <v>139</v>
-      </c>
-      <c r="C77" s="32"/>
-      <c r="D77" s="66" t="s">
-        <v>146</v>
-      </c>
-      <c r="E77" s="66"/>
-      <c r="F77" s="55"/>
+      <c r="E77" s="64"/>
+      <c r="F77" s="54"/>
       <c r="G77" s="34"/>
       <c r="H77" s="22"/>
       <c r="I77" s="23"/>
       <c r="J77" s="24"/>
     </row>
     <row r="78" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A78" s="93" t="s">
+      <c r="A78" s="91" t="s">
+        <v>146</v>
+      </c>
+      <c r="B78" s="68" t="s">
         <v>147</v>
-      </c>
-      <c r="B78" s="70" t="s">
-        <v>148</v>
       </c>
       <c r="C78" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="D78" s="70" t="s">
-        <v>149</v>
-      </c>
-      <c r="E78" s="70"/>
-      <c r="F78" s="60"/>
+      <c r="D78" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="E78" s="68"/>
+      <c r="F78" s="58"/>
       <c r="G78" s="21"/>
       <c r="H78" s="30"/>
       <c r="I78" s="31"/>
       <c r="J78" s="3"/>
     </row>
     <row r="79" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A79" s="93" t="s">
+      <c r="A79" s="91" t="s">
+        <v>149</v>
+      </c>
+      <c r="B79" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="B79" s="70" t="s">
+      <c r="C79" s="32"/>
+      <c r="D79" s="68" t="s">
         <v>151</v>
       </c>
-      <c r="C79" s="32"/>
-      <c r="D79" s="70" t="s">
-        <v>152</v>
-      </c>
-      <c r="E79" s="70"/>
-      <c r="F79" s="60"/>
+      <c r="E79" s="68"/>
+      <c r="F79" s="58"/>
       <c r="G79" s="21"/>
       <c r="H79" s="22"/>
       <c r="I79" s="23"/>
       <c r="J79" s="24"/>
     </row>
     <row r="80" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A80" s="94"/>
-      <c r="B80" s="95" t="str">
+      <c r="A80" s="92"/>
+      <c r="B80" s="93" t="str">
         <f>HYPERLINK("https://puolustusvoimat.fi/asiointi/asevelvollisuusrekisteri","Asevelvollisuusrekisteri")</f>
         <v>Asevelvollisuusrekisteri</v>
       </c>
       <c r="C80" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="D80" s="96" t="s">
+      <c r="D80" s="94" t="s">
+        <v>152</v>
+      </c>
+      <c r="E80" s="94"/>
+      <c r="F80" s="95" t="s">
         <v>153</v>
-      </c>
-      <c r="E80" s="96"/>
-      <c r="F80" s="97" t="s">
-        <v>154</v>
       </c>
       <c r="G80" s="29" t="s">
         <v>35</v>
@@ -2984,19 +2973,19 @@
       <c r="J80" s="3"/>
     </row>
     <row r="81" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A81" s="98"/>
-      <c r="B81" s="71" t="s">
+      <c r="A81" s="96"/>
+      <c r="B81" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="C81" s="32"/>
+      <c r="D81" s="69" t="s">
         <v>155</v>
       </c>
-      <c r="C81" s="32"/>
-      <c r="D81" s="71" t="s">
-        <v>156</v>
-      </c>
-      <c r="E81" s="71"/>
-      <c r="F81" s="99" t="s">
-        <v>154</v>
-      </c>
-      <c r="G81" s="100" t="s">
+      <c r="E81" s="69"/>
+      <c r="F81" s="97" t="s">
+        <v>153</v>
+      </c>
+      <c r="G81" s="98" t="s">
         <v>35</v>
       </c>
       <c r="H81" s="22"/>
@@ -3004,263 +2993,263 @@
       <c r="J81" s="24"/>
     </row>
     <row r="82" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A82" s="67" t="s">
-        <v>157</v>
-      </c>
-      <c r="B82" s="68" t="str">
+      <c r="A82" s="65" t="s">
+        <v>156</v>
+      </c>
+      <c r="B82" s="66" t="str">
         <f>HYPERLINK("https://www.oikeusrekisterikeskus.fi/fi/index/asiakaspalvelu/rekisteritotteetjatodistukset/rikosrekisteri.html","Rikosrekisteri")</f>
         <v>Rikosrekisteri</v>
       </c>
       <c r="C82" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="D82" s="101" t="s">
+      <c r="D82" s="99" t="s">
+        <v>157</v>
+      </c>
+      <c r="E82" s="99"/>
+      <c r="F82" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="E82" s="101"/>
-      <c r="F82" s="15" t="s">
+      <c r="G82" s="100" t="s">
         <v>159</v>
-      </c>
-      <c r="G82" s="102" t="s">
-        <v>160</v>
       </c>
       <c r="H82" s="30"/>
       <c r="I82" s="31"/>
       <c r="J82" s="3"/>
     </row>
     <row r="83" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A83" s="67" t="s">
+      <c r="A83" s="65" t="s">
+        <v>160</v>
+      </c>
+      <c r="B83" s="67" t="s">
         <v>161</v>
       </c>
-      <c r="B83" s="69" t="s">
+      <c r="C83" s="32"/>
+      <c r="D83" s="99" t="s">
         <v>162</v>
       </c>
-      <c r="C83" s="32"/>
-      <c r="D83" s="101" t="s">
-        <v>163</v>
-      </c>
-      <c r="E83" s="101"/>
+      <c r="E83" s="99"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="103"/>
+      <c r="G83" s="101"/>
       <c r="H83" s="22"/>
       <c r="I83" s="23"/>
       <c r="J83" s="24"/>
     </row>
     <row r="84" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A84" s="61"/>
-      <c r="B84" s="104" t="s">
-        <v>164</v>
+      <c r="A84" s="59"/>
+      <c r="B84" s="102" t="s">
+        <v>163</v>
       </c>
       <c r="C84" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="D84" s="63" t="s">
+      <c r="D84" s="61" t="s">
+        <v>164</v>
+      </c>
+      <c r="E84" s="61"/>
+      <c r="F84" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="E84" s="63"/>
-      <c r="F84" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="G84" s="105" t="s">
-        <v>160</v>
+      <c r="G84" s="103" t="s">
+        <v>159</v>
       </c>
       <c r="H84" s="30"/>
       <c r="I84" s="31"/>
       <c r="J84" s="3"/>
     </row>
     <row r="85" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A85" s="65"/>
-      <c r="B85" s="66" t="s">
+      <c r="A85" s="63"/>
+      <c r="B85" s="64" t="s">
+        <v>166</v>
+      </c>
+      <c r="C85" s="32"/>
+      <c r="D85" s="64" t="s">
         <v>167</v>
       </c>
-      <c r="C85" s="32"/>
-      <c r="D85" s="66" t="s">
-        <v>168</v>
-      </c>
-      <c r="E85" s="66"/>
-      <c r="F85" s="55"/>
+      <c r="E85" s="64"/>
+      <c r="F85" s="54"/>
       <c r="G85" s="34"/>
       <c r="H85" s="30"/>
       <c r="I85" s="31"/>
       <c r="J85" s="24"/>
     </row>
     <row r="86" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A86" s="67" t="s">
-        <v>169</v>
-      </c>
-      <c r="B86" s="68" t="str">
-        <f>HYPERLINK("https://www.etk.fi/wp-content/uploads/aineistolupahakemus_2tietosis%C3%A4ll%C3%B6n_kuvaus_2015_09_24.pdf","Eläkerekisteri")</f>
+      <c r="A86" s="65" t="s">
+        <v>168</v>
+      </c>
+      <c r="B86" s="118" t="str">
+        <f>HYPERLINK("https://aineistokatalogi.fi/catalog/studies/50b7d99a-3e5e-495c-874b-7622a0c897c3","Eläkerekisteri")</f>
         <v>Eläkerekisteri</v>
       </c>
       <c r="C86" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="D86" s="69" t="s">
-        <v>170</v>
-      </c>
-      <c r="E86" s="69"/>
-      <c r="F86" s="54" t="s">
+      <c r="D86" s="67" t="s">
+        <v>169</v>
+      </c>
+      <c r="E86" s="67"/>
+      <c r="F86" s="53" t="s">
         <v>22</v>
       </c>
       <c r="G86" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H86" s="72" t="s">
+      <c r="H86" s="70" t="s">
+        <v>170</v>
+      </c>
+      <c r="I86" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="I86" s="49" t="s">
+      <c r="J86" s="3"/>
+    </row>
+    <row r="87" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A87" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="J86" s="3"/>
-    </row>
-    <row r="87" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A87" s="67" t="s">
+      <c r="B87" s="67" t="s">
         <v>173</v>
       </c>
-      <c r="B87" s="69" t="s">
+      <c r="C87" s="32"/>
+      <c r="D87" s="67" t="s">
         <v>174</v>
       </c>
-      <c r="C87" s="32"/>
-      <c r="D87" s="69" t="s">
-        <v>175</v>
-      </c>
-      <c r="E87" s="69"/>
-      <c r="F87" s="60"/>
+      <c r="E87" s="67"/>
+      <c r="F87" s="58"/>
       <c r="G87" s="21"/>
       <c r="H87" s="22"/>
       <c r="I87" s="23"/>
       <c r="J87" s="24"/>
     </row>
     <row r="88" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A88" s="61"/>
-      <c r="B88" s="106" t="str">
+      <c r="A88" s="59"/>
+      <c r="B88" s="104" t="str">
         <f>HYPERLINK("https://www.etk.fi/wp-content/uploads/aineistolupahakemus_2tietosis%C3%A4ll%C3%B6n_kuvaus_2015_09_24.pdf","Ansaintarekisteri")</f>
         <v>Ansaintarekisteri</v>
       </c>
       <c r="C88" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="D88" s="104" t="s">
-        <v>176</v>
-      </c>
-      <c r="E88" s="104"/>
-      <c r="F88" s="97" t="s">
+      <c r="D88" s="102" t="s">
+        <v>175</v>
+      </c>
+      <c r="E88" s="102"/>
+      <c r="F88" s="95" t="s">
         <v>22</v>
       </c>
       <c r="G88" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="H88" s="72" t="s">
+      <c r="H88" s="70" t="s">
+        <v>176</v>
+      </c>
+      <c r="I88" s="48" t="s">
         <v>177</v>
       </c>
-      <c r="I88" s="49" t="s">
+      <c r="J88" s="3"/>
+    </row>
+    <row r="89" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A89" s="59"/>
+      <c r="B89" s="67" t="s">
         <v>178</v>
       </c>
-      <c r="J88" s="3"/>
-    </row>
-    <row r="89" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A89" s="61"/>
-      <c r="B89" s="69" t="s">
+      <c r="C89" s="14"/>
+      <c r="D89" s="67" t="s">
         <v>179</v>
       </c>
-      <c r="C89" s="14"/>
-      <c r="D89" s="69" t="s">
-        <v>180</v>
-      </c>
-      <c r="E89" s="69"/>
-      <c r="F89" s="60"/>
+      <c r="E89" s="67"/>
+      <c r="F89" s="58"/>
       <c r="G89" s="21"/>
       <c r="H89" s="30"/>
       <c r="I89" s="31"/>
       <c r="J89" s="24"/>
     </row>
     <row r="90" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A90" s="61"/>
-      <c r="B90" s="62"/>
+      <c r="A90" s="59"/>
+      <c r="B90" s="60"/>
       <c r="C90" s="14"/>
-      <c r="D90" s="104" t="s">
-        <v>181</v>
-      </c>
-      <c r="E90" s="104"/>
-      <c r="F90" s="97" t="s">
+      <c r="D90" s="102" t="s">
+        <v>180</v>
+      </c>
+      <c r="E90" s="102"/>
+      <c r="F90" s="95" t="s">
         <v>22</v>
       </c>
       <c r="G90" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="H90" s="72" t="s">
+      <c r="H90" s="70" t="s">
+        <v>181</v>
+      </c>
+      <c r="I90" s="48" t="s">
         <v>182</v>
       </c>
-      <c r="I90" s="49" t="s">
+      <c r="J90" s="3"/>
+    </row>
+    <row r="91" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A91" s="59"/>
+      <c r="B91" s="60"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="67" t="s">
         <v>183</v>
       </c>
-      <c r="J90" s="3"/>
-    </row>
-    <row r="91" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A91" s="61"/>
-      <c r="B91" s="62"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="69" t="s">
-        <v>184</v>
-      </c>
-      <c r="E91" s="69"/>
-      <c r="F91" s="60"/>
+      <c r="E91" s="67"/>
+      <c r="F91" s="58"/>
       <c r="G91" s="21"/>
       <c r="H91" s="30"/>
       <c r="I91" s="31"/>
       <c r="J91" s="24"/>
     </row>
     <row r="92" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A92" s="61"/>
-      <c r="B92" s="62"/>
+      <c r="A92" s="59"/>
+      <c r="B92" s="60"/>
       <c r="C92" s="14"/>
-      <c r="D92" s="104" t="s">
-        <v>185</v>
-      </c>
-      <c r="E92" s="104"/>
-      <c r="F92" s="97" t="s">
+      <c r="D92" s="102" t="s">
+        <v>184</v>
+      </c>
+      <c r="E92" s="102"/>
+      <c r="F92" s="95" t="s">
         <v>22</v>
       </c>
       <c r="G92" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="H92" s="72" t="s">
-        <v>177</v>
-      </c>
-      <c r="I92" s="49" t="s">
+      <c r="H92" s="70" t="s">
+        <v>176</v>
+      </c>
+      <c r="I92" s="48" t="s">
+        <v>185</v>
+      </c>
+      <c r="J92" s="3"/>
+    </row>
+    <row r="93" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A93" s="59"/>
+      <c r="B93" s="60"/>
+      <c r="C93" s="32"/>
+      <c r="D93" s="64" t="s">
         <v>186</v>
       </c>
-      <c r="J92" s="3"/>
-    </row>
-    <row r="93" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A93" s="61"/>
-      <c r="B93" s="62"/>
-      <c r="C93" s="32"/>
-      <c r="D93" s="66" t="s">
-        <v>187</v>
-      </c>
-      <c r="E93" s="66"/>
-      <c r="F93" s="55"/>
+      <c r="E93" s="64"/>
+      <c r="F93" s="54"/>
       <c r="G93" s="34"/>
       <c r="H93" s="22"/>
       <c r="I93" s="23"/>
       <c r="J93" s="24"/>
     </row>
     <row r="94" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A94" s="107" t="s">
-        <v>188</v>
-      </c>
-      <c r="B94" s="106" t="str">
+      <c r="A94" s="105" t="s">
+        <v>187</v>
+      </c>
+      <c r="B94" s="104" t="str">
         <f>HYPERLINK("https://tem.fi/tyollisyyskatsaus-ja-tyonvalitystilasto","Työnvälitystilasto")</f>
         <v>Työnvälitystilasto</v>
       </c>
       <c r="C94" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="D94" s="62"/>
-      <c r="E94" s="62"/>
-      <c r="F94" s="54" t="s">
-        <v>117</v>
+      <c r="D94" s="60"/>
+      <c r="E94" s="60"/>
+      <c r="F94" s="53" t="s">
+        <v>116</v>
       </c>
       <c r="G94" s="16" t="s">
         <v>35</v>
@@ -3270,17 +3259,17 @@
       <c r="J94" s="3"/>
     </row>
     <row r="95" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A95" s="108" t="s">
+      <c r="A95" s="106" t="s">
+        <v>188</v>
+      </c>
+      <c r="B95" s="107" t="s">
         <v>189</v>
       </c>
-      <c r="B95" s="109" t="s">
-        <v>190</v>
-      </c>
       <c r="C95" s="32"/>
-      <c r="D95" s="109"/>
-      <c r="E95" s="109"/>
-      <c r="F95" s="110"/>
-      <c r="G95" s="111"/>
+      <c r="D95" s="107"/>
+      <c r="E95" s="107"/>
+      <c r="F95" s="108"/>
+      <c r="G95" s="109"/>
       <c r="H95" s="22"/>
       <c r="I95" s="23"/>
       <c r="J95" s="24"/>

--- a/python/FBC-rekisterit.xlsx
+++ b/python/FBC-rekisterit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="132" yWindow="528" windowWidth="22716" windowHeight="8940"/>
+    <workbookView xWindow="132" yWindow="588" windowWidth="22716" windowHeight="8880"/>
   </bookViews>
   <sheets>
     <sheet name="rekisterit" sheetId="1" r:id="rId1"/>
@@ -1181,6 +1181,12 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1194,12 +1200,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1509,7 +1509,7 @@
   <dimension ref="A1:J95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1521,17 +1521,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="112"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="115" t="s">
+      <c r="F1" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="112"/>
+      <c r="G1" s="114"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -1542,14 +1542,14 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="113" t="s">
+      <c r="F2" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="114"/>
-      <c r="H2" s="116" t="s">
+      <c r="G2" s="116"/>
+      <c r="H2" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="114"/>
+      <c r="I2" s="116"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2022,7 +2022,7 @@
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
-      <c r="B26" s="117" t="str">
+      <c r="B26" s="111" t="str">
         <f>HYPERLINK("http://www.stat.fi/meta/rekisteriselosteet/rekisteriseloste_tutkintorekisteri.html","Tutkintorekisteri")</f>
         <v>Tutkintorekisteri</v>
       </c>
@@ -3077,7 +3077,7 @@
       <c r="A86" s="65" t="s">
         <v>168</v>
       </c>
-      <c r="B86" s="118" t="str">
+      <c r="B86" s="112" t="str">
         <f>HYPERLINK("https://aineistokatalogi.fi/catalog/studies/50b7d99a-3e5e-495c-874b-7622a0c897c3","Eläkerekisteri")</f>
         <v>Eläkerekisteri</v>
       </c>

--- a/python/FBC-rekisterit.xlsx
+++ b/python/FBC-rekisterit.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="193">
   <si>
     <t>Kansallinen syntymäkohortti 1987 ja 1997</t>
   </si>
@@ -587,13 +587,19 @@
   </si>
   <si>
     <t>1991-2008</t>
+  </si>
+  <si>
+    <t>Ansaintarekisteri</t>
+  </si>
+  <si>
+    <t>01.04.2010</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -702,6 +708,12 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF6AA84F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -873,7 +885,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1200,6 +1212,12 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1506,10 +1524,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J95"/>
+  <dimension ref="A1:K95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2691,7 +2709,7 @@
       <c r="I64" s="31"/>
       <c r="J64" s="3"/>
     </row>
-    <row r="65" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="71"/>
       <c r="B65" s="71"/>
       <c r="C65" s="14"/>
@@ -2705,7 +2723,7 @@
       <c r="I65" s="23"/>
       <c r="J65" s="24"/>
     </row>
-    <row r="66" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="71"/>
       <c r="B66" s="71"/>
       <c r="C66" s="14"/>
@@ -2723,7 +2741,7 @@
       <c r="I66" s="31"/>
       <c r="J66" s="3"/>
     </row>
-    <row r="67" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="71"/>
       <c r="B67" s="71"/>
       <c r="C67" s="14"/>
@@ -2737,7 +2755,7 @@
       <c r="I67" s="23"/>
       <c r="J67" s="24"/>
     </row>
-    <row r="68" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="71"/>
       <c r="B68" s="71"/>
       <c r="C68" s="14"/>
@@ -2753,7 +2771,7 @@
       <c r="I68" s="31"/>
       <c r="J68" s="3"/>
     </row>
-    <row r="69" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="71"/>
       <c r="B69" s="71"/>
       <c r="C69" s="14"/>
@@ -2767,7 +2785,7 @@
       <c r="I69" s="23"/>
       <c r="J69" s="24"/>
     </row>
-    <row r="70" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="71"/>
       <c r="B70" s="71"/>
       <c r="C70" s="14"/>
@@ -2783,7 +2801,7 @@
       <c r="I70" s="31"/>
       <c r="J70" s="3"/>
     </row>
-    <row r="71" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="71"/>
       <c r="B71" s="71"/>
       <c r="C71" s="14"/>
@@ -2797,7 +2815,7 @@
       <c r="I71" s="23"/>
       <c r="J71" s="24"/>
     </row>
-    <row r="72" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="71"/>
       <c r="B72" s="71"/>
       <c r="C72" s="14"/>
@@ -2815,7 +2833,7 @@
       <c r="I72" s="31"/>
       <c r="J72" s="3"/>
     </row>
-    <row r="73" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="79"/>
       <c r="B73" s="79"/>
       <c r="C73" s="32"/>
@@ -2829,7 +2847,7 @@
       <c r="I73" s="23"/>
       <c r="J73" s="24"/>
     </row>
-    <row r="74" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A74" s="80" t="s">
         <v>134</v>
       </c>
@@ -2844,14 +2862,16 @@
       </c>
       <c r="E74" s="82"/>
       <c r="F74" s="76"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="70" t="s">
-        <v>137</v>
+      <c r="H74" s="120" t="s">
+        <v>192</v>
       </c>
       <c r="I74" s="83"/>
       <c r="J74" s="84"/>
-    </row>
-    <row r="75" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="K74" s="70" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A75" s="85" t="s">
         <v>134</v>
       </c>
@@ -2869,7 +2889,7 @@
       <c r="I75" s="87"/>
       <c r="J75" s="89"/>
     </row>
-    <row r="76" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A76" s="65" t="s">
         <v>140</v>
       </c>
@@ -2893,7 +2913,7 @@
       <c r="I76" s="31"/>
       <c r="J76" s="3"/>
     </row>
-    <row r="77" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A77" s="90" t="s">
         <v>144</v>
       </c>
@@ -2911,7 +2931,7 @@
       <c r="I77" s="23"/>
       <c r="J77" s="24"/>
     </row>
-    <row r="78" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="91" t="s">
         <v>146</v>
       </c>
@@ -2931,7 +2951,7 @@
       <c r="I78" s="31"/>
       <c r="J78" s="3"/>
     </row>
-    <row r="79" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="91" t="s">
         <v>149</v>
       </c>
@@ -2949,7 +2969,7 @@
       <c r="I79" s="23"/>
       <c r="J79" s="24"/>
     </row>
-    <row r="80" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="92"/>
       <c r="B80" s="93" t="str">
         <f>HYPERLINK("https://puolustusvoimat.fi/asiointi/asevelvollisuusrekisteri","Asevelvollisuusrekisteri")</f>
@@ -3122,9 +3142,8 @@
     </row>
     <row r="88" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" s="59"/>
-      <c r="B88" s="104" t="str">
-        <f>HYPERLINK("https://www.etk.fi/wp-content/uploads/aineistolupahakemus_2tietosis%C3%A4ll%C3%B6n_kuvaus_2015_09_24.pdf","Ansaintarekisteri")</f>
-        <v>Ansaintarekisteri</v>
+      <c r="B88" s="119" t="s">
+        <v>191</v>
       </c>
       <c r="C88" s="14" t="b">
         <v>0</v>
@@ -3282,5 +3301,6 @@
     <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/python/FBC-rekisterit.xlsx
+++ b/python/FBC-rekisterit.xlsx
@@ -1199,6 +1199,12 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1213,16 +1219,10 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlinkki" xfId="1" builtinId="8"/>
-    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1235,7 +1235,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-teema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1526,8 +1526,8 @@
   </sheetPr>
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1539,17 +1539,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="114"/>
+      <c r="B1" s="116"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="117" t="s">
+      <c r="F1" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="114"/>
+      <c r="G1" s="116"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -1560,14 +1560,14 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="115" t="s">
+      <c r="F2" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="116"/>
-      <c r="H2" s="118" t="s">
+      <c r="G2" s="118"/>
+      <c r="H2" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="116"/>
+      <c r="I2" s="118"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2862,7 +2862,7 @@
       </c>
       <c r="E74" s="82"/>
       <c r="F74" s="76"/>
-      <c r="H74" s="120" t="s">
+      <c r="H74" s="114" t="s">
         <v>192</v>
       </c>
       <c r="I74" s="83"/>
@@ -3142,7 +3142,7 @@
     </row>
     <row r="88" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" s="59"/>
-      <c r="B88" s="119" t="s">
+      <c r="B88" s="113" t="s">
         <v>191</v>
       </c>
       <c r="C88" s="14" t="b">
